--- a/data/output/FV2404_FV2310/ORDERS/17003.xlsx
+++ b/data/output/FV2404_FV2310/ORDERS/17003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="277">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="277">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -953,6 +953,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U131" totalsRowShown="0">
+  <autoFilter ref="A1:U131"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,7 +1272,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7518,5 +7551,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/ORDERS/17003.xlsx
+++ b/data/output/FV2404_FV2310/ORDERS/17003.xlsx
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4451,7 +4451,7 @@
         <v>260</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4655,7 +4655,7 @@
         <v>262</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4859,7 +4859,7 @@
         <v>264</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5271,7 +5271,7 @@
         <v>267</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5845,7 +5845,7 @@
         <v>268</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6045,7 +6045,7 @@
         <v>270</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6649,7 +6649,7 @@
         <v>272</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7253,7 +7253,7 @@
         <v>274</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7669,7 +7669,7 @@
         <v>276</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7823,7 +7823,7 @@
         <v>276</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7981,7 +7981,7 @@
         <v>276</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N127" s="2"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N129" s="2"/>
